--- a/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
+++ b/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="134">
   <si>
     <t>土地坐落</t>
   </si>
@@ -214,7 +214,19 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>中國鋼鐵股份有限公司</t>
+  </si>
+  <si>
+    <t>2013-12-11</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1523,13 +1535,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1548,13 +1560,22 @@
       <c r="G1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1570,6 +1591,15 @@
       </c>
       <c r="G2" s="2">
         <v>149260</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1750</v>
       </c>
     </row>
   </sheetData>
@@ -1587,22 +1617,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>37</v>
@@ -1613,13 +1643,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2">
         <v>90000</v>
@@ -1628,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H2" s="2">
         <v>260100</v>
@@ -1639,13 +1669,13 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2">
         <v>22.7</v>
@@ -1665,13 +1695,13 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2">
         <v>1060.21</v>
@@ -1691,13 +1721,13 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2">
         <v>560.06</v>
@@ -1717,13 +1747,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2">
         <v>1259.44</v>
@@ -1743,13 +1773,13 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2">
         <v>1.74</v>
@@ -1769,13 +1799,13 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2">
         <v>25.73</v>
@@ -1795,13 +1825,13 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2">
         <v>77.18</v>
@@ -1831,16 +1861,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1848,16 +1878,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1865,16 +1895,16 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1882,16 +1912,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1899,16 +1929,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1916,16 +1946,16 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1933,16 +1963,16 @@
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1950,16 +1980,16 @@
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1967,16 +1997,16 @@
         <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1984,16 +2014,16 @@
         <v>117</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2001,16 +2031,16 @@
         <v>118</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2018,16 +2048,16 @@
         <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2035,16 +2065,16 @@
         <v>120</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2052,16 +2082,16 @@
         <v>121</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2069,16 +2099,16 @@
         <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2086,16 +2116,16 @@
         <v>123</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2103,16 +2133,16 @@
         <v>124</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2120,16 +2150,16 @@
         <v>125</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2137,16 +2167,16 @@
         <v>126</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2154,16 +2184,16 @@
         <v>127</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2171,16 +2201,16 @@
         <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2188,16 +2218,16 @@
         <v>129</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2205,16 +2235,16 @@
         <v>130</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2222,16 +2252,16 @@
         <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2239,16 +2269,16 @@
         <v>133</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
+++ b/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="136">
   <si>
     <t>土地坐落</t>
   </si>
@@ -214,6 +214,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -224,6 +227,9 @@
   </si>
   <si>
     <t>中國鋼鐵股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-12-11</t>
@@ -1535,13 +1541,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1569,13 +1575,16 @@
       <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1593,12 +1602,15 @@
         <v>149260</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1750</v>
       </c>
     </row>
@@ -1617,22 +1629,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>37</v>
@@ -1643,13 +1655,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2">
         <v>90000</v>
@@ -1658,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H2" s="2">
         <v>260100</v>
@@ -1669,13 +1681,13 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>22.7</v>
@@ -1695,13 +1707,13 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2">
         <v>1060.21</v>
@@ -1721,13 +1733,13 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2">
         <v>560.06</v>
@@ -1747,13 +1759,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2">
         <v>1259.44</v>
@@ -1773,13 +1785,13 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2">
         <v>1.74</v>
@@ -1799,13 +1811,13 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2">
         <v>25.73</v>
@@ -1825,13 +1837,13 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2">
         <v>77.18</v>
@@ -1861,16 +1873,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1878,16 +1890,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1895,16 +1907,16 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1912,16 +1924,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1929,16 +1941,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1946,16 +1958,16 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1963,16 +1975,16 @@
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1980,16 +1992,16 @@
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1997,16 +2009,16 @@
         <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2014,16 +2026,16 @@
         <v>117</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2031,16 +2043,16 @@
         <v>118</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2048,16 +2060,16 @@
         <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2065,16 +2077,16 @@
         <v>120</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2082,16 +2094,16 @@
         <v>121</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2099,16 +2111,16 @@
         <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2116,16 +2128,16 @@
         <v>123</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2133,16 +2145,16 @@
         <v>124</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2150,16 +2162,16 @@
         <v>125</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2167,16 +2179,16 @@
         <v>126</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2184,16 +2196,16 @@
         <v>127</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2201,16 +2213,16 @@
         <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2218,16 +2230,16 @@
         <v>129</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2235,16 +2247,16 @@
         <v>130</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2252,16 +2264,16 @@
         <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2269,16 +2281,16 @@
         <v>133</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
+++ b/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="141">
   <si>
     <t>土地坐落</t>
   </si>
@@ -217,6 +217,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -226,13 +229,25 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>中國鋼鐵股份有限公司</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-12-11</t>
+  </si>
+  <si>
+    <t>tmpd3cb1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1541,13 +1556,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1578,13 +1593,22 @@
       <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1602,16 +1626,25 @@
         <v>149260</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1750</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1629,22 +1662,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>37</v>
@@ -1655,13 +1688,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2">
         <v>90000</v>
@@ -1670,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H2" s="2">
         <v>260100</v>
@@ -1681,13 +1714,13 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2">
         <v>22.7</v>
@@ -1707,13 +1740,13 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2">
         <v>1060.21</v>
@@ -1733,13 +1766,13 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2">
         <v>560.06</v>
@@ -1759,13 +1792,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2">
         <v>1259.44</v>
@@ -1785,13 +1818,13 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2">
         <v>1.74</v>
@@ -1811,13 +1844,13 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E8" s="2">
         <v>25.73</v>
@@ -1837,13 +1870,13 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2">
         <v>77.18</v>
@@ -1873,16 +1906,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1890,16 +1923,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1907,16 +1940,16 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1924,16 +1957,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1941,16 +1974,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1958,16 +1991,16 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1975,16 +2008,16 @@
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1992,16 +2025,16 @@
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2009,16 +2042,16 @@
         <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2026,16 +2059,16 @@
         <v>117</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2043,16 +2076,16 @@
         <v>118</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2060,16 +2093,16 @@
         <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2077,16 +2110,16 @@
         <v>120</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2094,16 +2127,16 @@
         <v>121</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2111,16 +2144,16 @@
         <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2128,16 +2161,16 @@
         <v>123</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2145,16 +2178,16 @@
         <v>124</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2162,16 +2195,16 @@
         <v>125</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2179,16 +2212,16 @@
         <v>126</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2196,16 +2229,16 @@
         <v>127</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2213,16 +2246,16 @@
         <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2230,16 +2263,16 @@
         <v>129</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2247,16 +2280,16 @@
         <v>130</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2264,16 +2297,16 @@
         <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2281,16 +2314,16 @@
         <v>133</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
+++ b/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
@@ -20,9 +20,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="141">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="144">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>高雄市鳳山區七老爺段一甲小段14030007地號</t>
+  </si>
+  <si>
+    <t>高雄市鳳山區七老爺段一甲小段14030013地號</t>
+  </si>
+  <si>
+    <t>高雄市鳳山區五甲段24360000地號</t>
+  </si>
+  <si>
+    <t>10分之1</t>
+  </si>
+  <si>
+    <t>10000分之276</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>許智傑</t>
+  </si>
+  <si>
+    <t>周桂香</t>
+  </si>
+  <si>
+    <t>83年01月01日</t>
+  </si>
+  <si>
+    <t>99年01月01日</t>
+  </si>
+  <si>
+    <t>101年03月22曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>1560000(與建物合併計算）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-11</t>
+  </si>
+  <si>
+    <t>tmpd3cb1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,67 +139,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>高雄市鳳山區七老爺段一甲小 段1403-0007地號</t>
-  </si>
-  <si>
-    <t>高雄市鳳山區七老爺段一甲小 段1403-0013地號</t>
-  </si>
-  <si>
-    <t>高雄市鳳山區五甲段2436-0000 地號</t>
-  </si>
-  <si>
-    <t>10分之1</t>
-  </si>
-  <si>
-    <t>10000分之 276</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>許智傑</t>
-  </si>
-  <si>
-    <t>周桂香</t>
-  </si>
-  <si>
-    <t>83年01月 01日</t>
-  </si>
-  <si>
-    <t>99年01月 01日</t>
-  </si>
-  <si>
-    <t>101 年 03 月22曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>1，560,000(與 建物合併計 算）</t>
-  </si>
-  <si>
-    <t>1，560，000(與 建物合併計 算）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>高雄市鳳山區七老爺段一甲小 段04262-000建號</t>
-  </si>
-  <si>
-    <t>高雄市鳳山區七老爺段一甲小 段04267-000建號</t>
-  </si>
-  <si>
-    <t>高雄市鳳山區五甲段07092-000 建號</t>
-  </si>
-  <si>
-    <t>1，560’000(與 土地合併計算）</t>
-  </si>
-  <si>
-    <t>12，500，000(超 過五年）</t>
+    <t>高雄市鳳山區七老爺段一甲小段04262000建號</t>
+  </si>
+  <si>
+    <t>高雄市鳳山區七老爺段一甲小段04267000建號</t>
+  </si>
+  <si>
+    <t>高雄市鳳山區五甲段07092000建號</t>
+  </si>
+  <si>
+    <t>1560000(與土地合併計算）</t>
+  </si>
+  <si>
+    <t>12500000(超過五年）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -118,7 +166,7 @@
     <t>曰產</t>
   </si>
   <si>
-    <t>92年10月 15日</t>
+    <t>92年10月15日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -139,10 +187,10 @@
     <t>大眾商業銀行高雄分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行五甲分 行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行鳳山分 行</t>
+    <t>中國信託商業銀行五甲分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行鳳山分行</t>
   </si>
   <si>
     <t>鳳山一甲郵局(第13支局）</t>
@@ -151,22 +199,22 @@
     <t>臺灣銀行五甲分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行五甲分 行</t>
+    <t>合作金庫商業銀行五甲分行</t>
   </si>
   <si>
     <t>元大商業銀行鳳山分行</t>
   </si>
   <si>
-    <t>高雄縣鳳山市農會五甲分 部</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行鳳山分 行</t>
+    <t>高雄縣鳳山市農會五甲分部</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行鳳山分行</t>
   </si>
   <si>
     <t>臺灣土地銀行五甲分行</t>
   </si>
   <si>
-    <t>鳳山一甲郵局（第13支 局）</t>
+    <t>鳳山一甲郵局（第13支局）</t>
   </si>
   <si>
     <t>台灣銀行五甲分行</t>
@@ -193,13 +241,7 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>■ 24,037</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>■24037</t>
   </si>
   <si>
     <t>quantity</t>
@@ -214,42 +256,12 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>中國鋼鐵股份有限公司</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-11</t>
-  </si>
-  <si>
-    <t>tmpd3cb1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -265,19 +277,19 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>十年期南非幣計 價匯率連結组合</t>
+    <t>十年期南非幣計價匯率連結组合</t>
   </si>
   <si>
     <t>ING環高收基金</t>
   </si>
   <si>
-    <t>先機日本股票基 金B</t>
-  </si>
-  <si>
-    <t>先機歐洲股票基 金B</t>
-  </si>
-  <si>
-    <t>坦全新興國家固 定收B</t>
+    <t>先機日本股票基金B</t>
+  </si>
+  <si>
+    <t>先機歐洲股票基金B</t>
+  </si>
+  <si>
+    <t>坦全新興國家固定收B</t>
   </si>
   <si>
     <t>摩根東協基金</t>
@@ -286,10 +298,7 @@
     <t>摩根菲律賓基金</t>
   </si>
   <si>
-    <t>摩根證券俄羅斯 基金</t>
-  </si>
-  <si>
-    <t>大眾商業銀行 高雄分行</t>
+    <t>摩根證券俄羅斯基金</t>
   </si>
   <si>
     <t>南非幣</t>
@@ -322,7 +331,7 @@
     <t>國泰人壽</t>
   </si>
   <si>
-    <t>致富100-富甲天下外幣變額 保險</t>
+    <t>致富100富甲天下外幣變額保險</t>
   </si>
   <si>
     <t>增鑫動養老保險</t>
@@ -331,10 +340,10 @@
     <t>312還本終身保險勝</t>
   </si>
   <si>
-    <t>美年發外幣增額還本終身保 險</t>
-  </si>
-  <si>
-    <t>快樂兒童外幣增額還本終身 保險</t>
+    <t>美年發外幣增額還本終身保險</t>
+  </si>
+  <si>
+    <t>快樂兒童外幣增額還本終身保險</t>
   </si>
   <si>
     <t>美鑫外幣中身分紅壽險</t>
@@ -373,13 +382,13 @@
     <t>新康祥終身壽險</t>
   </si>
   <si>
-    <t>新20年期繳費增值分紅終身 壽險</t>
-  </si>
-  <si>
-    <t>新20年期缴費增值分紅終身 壽險</t>
-  </si>
-  <si>
-    <t>保費整筆：美金15000元（躉 繳）</t>
+    <t>新20年期繳費增值分紅終身壽險</t>
+  </si>
+  <si>
+    <t>新20年期缴費增值分紅終身壽險</t>
+  </si>
+  <si>
+    <t>保費整筆：美金15000元（躉繳）</t>
   </si>
   <si>
     <t>新台幣：50萬元（年繳）</t>
@@ -436,7 +445,7 @@
     <t>年繳：新台幣2680元</t>
   </si>
   <si>
-    <t>年繳•新台幣123800元</t>
+    <t>年繳新台幣123800元</t>
   </si>
   <si>
     <t>年繳：新台幣6150元</t>
@@ -801,13 +810,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,135 +838,261 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>211</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>434</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>211</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="M4" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>434</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2">
         <v>16</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H6" s="2">
         <v>12500000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -975,25 +1110,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1001,25 +1136,25 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>72.8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1027,25 +1162,25 @@
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>72.8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1053,25 +1188,25 @@
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>36.43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1089,22 +1224,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1112,22 +1247,22 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1145,22 +1280,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1168,16 +1303,16 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
         <v>3795.3</v>
@@ -1191,16 +1326,16 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
         <v>3773.42</v>
@@ -1214,16 +1349,16 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
         <v>986.1</v>
@@ -1237,16 +1372,16 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1258,16 +1393,16 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1279,16 +1414,16 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1300,16 +1435,16 @@
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1321,16 +1456,16 @@
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1342,16 +1477,16 @@
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1363,16 +1498,16 @@
         <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1384,20 +1519,20 @@
         <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1405,16 +1540,16 @@
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1426,16 +1561,16 @@
         <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1447,16 +1582,16 @@
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1468,16 +1603,16 @@
         <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1489,16 +1624,16 @@
         <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1510,16 +1645,16 @@
         <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F18" s="2">
         <v>1386.77</v>
@@ -1533,16 +1668,16 @@
         <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1564,43 +1699,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1608,10 +1743,10 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
         <v>14926</v>
@@ -1620,28 +1755,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2">
         <v>149260</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2">
         <v>1750</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2">
         <v>74</v>
@@ -1662,25 +1797,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1688,13 +1823,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2">
         <v>90000</v>
@@ -1703,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2">
         <v>260100</v>
@@ -1714,13 +1849,13 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2">
         <v>22.7</v>
@@ -1729,7 +1864,7 @@
         <v>260.88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H3" s="2">
         <v>175480.79</v>
@@ -1740,13 +1875,13 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2">
         <v>1060.21</v>
@@ -1755,7 +1890,7 @@
         <v>11.54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H4" s="2">
         <v>362507.48</v>
@@ -1766,13 +1901,13 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2">
         <v>560.06</v>
@@ -1781,7 +1916,7 @@
         <v>17.95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2">
         <v>297955.4</v>
@@ -1792,13 +1927,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2">
         <v>1259.44</v>
@@ -1807,7 +1942,7 @@
         <v>11.25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2">
         <v>419721.39</v>
@@ -1818,13 +1953,13 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2">
         <v>1.74</v>
@@ -1833,7 +1968,7 @@
         <v>112.77</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H7" s="2">
         <v>5822.64</v>
@@ -1844,13 +1979,13 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2">
         <v>25.73</v>
@@ -1859,7 +1994,7 @@
         <v>93.46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2">
         <v>71243.49</v>
@@ -1870,13 +2005,13 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2">
         <v>77.18</v>
@@ -1885,7 +2020,7 @@
         <v>12.06</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H9" s="2">
         <v>27574.95</v>
@@ -1906,16 +2041,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1923,16 +2058,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1940,16 +2075,16 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1957,16 +2092,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1974,16 +2109,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1991,16 +2126,16 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2008,16 +2143,16 @@
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2025,16 +2160,16 @@
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2042,16 +2177,16 @@
         <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2059,16 +2194,16 @@
         <v>117</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2076,16 +2211,16 @@
         <v>118</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2093,16 +2228,16 @@
         <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2110,16 +2245,16 @@
         <v>120</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2127,16 +2262,16 @@
         <v>121</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2144,16 +2279,16 @@
         <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2161,16 +2296,16 @@
         <v>123</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2178,16 +2313,16 @@
         <v>124</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2195,16 +2330,16 @@
         <v>125</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2212,16 +2347,16 @@
         <v>126</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2229,16 +2364,16 @@
         <v>127</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2246,16 +2381,16 @@
         <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2263,16 +2398,16 @@
         <v>129</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2280,16 +2415,16 @@
         <v>130</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2297,16 +2432,16 @@
         <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2314,16 +2449,16 @@
         <v>133</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
+++ b/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -64,21 +64,27 @@
     <t>index</t>
   </si>
   <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>高雄市鳳山區七老爺段一甲小段14030013地號</t>
+  </si>
+  <si>
     <t>高雄市鳳山區七老爺段一甲小段14030007地號</t>
   </si>
   <si>
-    <t>高雄市鳳山區七老爺段一甲小段14030013地號</t>
-  </si>
-  <si>
     <t>高雄市鳳山區五甲段24360000地號</t>
   </si>
   <si>
+    <t>10000分之276</t>
+  </si>
+  <si>
     <t>10分之1</t>
   </si>
   <si>
-    <t>10000分之276</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
@@ -118,27 +124,6 @@
     <t>tmpd3cb1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>高雄市鳳山區七老爺段一甲小段04262000建號</t>
   </si>
   <si>
@@ -154,39 +139,21 @@
     <t>12500000(超過五年）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>曰產</t>
   </si>
   <si>
     <t>92年10月15日</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>大眾商業銀行高雄分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
     <t>中國信託商業銀行五甲分行</t>
   </si>
   <si>
@@ -223,9 +190,6 @@
     <t>台灣銀行山分行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>支票存款</t>
   </si>
   <si>
@@ -235,9 +199,6 @@
     <t>活期儲蓄存款</t>
   </si>
   <si>
-    <t>美金</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
@@ -253,33 +214,12 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>中國鋼鐵股份有限公司</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>十年期南非幣計價匯率連結组合</t>
   </si>
   <si>
+    <t>南非幣</t>
+  </si>
+  <si>
     <t>ING環高收基金</t>
   </si>
   <si>
@@ -301,24 +241,15 @@
     <t>摩根證券俄羅斯基金</t>
   </si>
   <si>
-    <t>南非幣</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>法國巴黎人壽</t>
   </si>
   <si>
+    <t>致富100富甲天下外幣變額保險</t>
+  </si>
+  <si>
+    <t>保費整筆：美金15000元（躉繳）</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
@@ -331,9 +262,6 @@
     <t>國泰人壽</t>
   </si>
   <si>
-    <t>致富100富甲天下外幣變額保險</t>
-  </si>
-  <si>
     <t>增鑫動養老保險</t>
   </si>
   <si>
@@ -386,9 +314,6 @@
   </si>
   <si>
     <t>新20年期缴費增值分紅終身壽險</t>
-  </si>
-  <si>
-    <t>保費整筆：美金15000元（躉繳）</t>
   </si>
   <si>
     <t>新台幣：50萬元（年繳）</t>
@@ -810,13 +735,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -859,240 +784,223 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>211</v>
+        <v>434</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>1750</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0276</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>11.9784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>211</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>434</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="M3" s="2">
         <v>1750</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>434</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2">
-        <v>211</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2">
         <v>1750</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0276</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>11.9784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>74</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2">
+        <v>12500000</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2">
-        <v>434</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M5" s="2">
         <v>1750</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
         <v>74</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2">
-        <v>12500000</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1750</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="2">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1110,103 +1018,77 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="C1" s="1">
+        <v>72.8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>72.8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
-        <v>72.8</v>
+        <v>36.43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2">
-        <v>36.43</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1216,7 +1098,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1998</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1224,463 +1139,384 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
+      </c>
+      <c r="F1" s="1">
+        <v>3795.3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>112428.17</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1998</v>
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>49</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2">
-        <v>3795.3</v>
+        <v>3773.42</v>
       </c>
       <c r="G2" s="2">
-        <v>112428.17</v>
+        <v>111780.02</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
-        <v>3773.42</v>
+        <v>986.1</v>
       </c>
       <c r="G3" s="2">
-        <v>111780.02</v>
+        <v>29211.24</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2">
-        <v>986.1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>29211.24</v>
+        <v>2700000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>2700000</v>
+        <v>436909</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>436909</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>2000000</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>4589</v>
+        <v>24644</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>24644</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>140</v>
+      <c r="G11" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>73</v>
+      <c r="G12" s="2">
+        <v>47928</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>47928</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>22</v>
+        <v>379578</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>379578</v>
+        <v>13606</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>13606</v>
+        <v>1991520</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1386.77</v>
+      </c>
       <c r="G17" s="2">
-        <v>1991520</v>
+        <v>41080.28</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1386.77</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>41080.28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>67</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
         <v>102624</v>
       </c>
     </row>
@@ -1691,13 +1527,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="B1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="2:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1705,16 +1541,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1736,50 +1572,6 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>74</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2">
-        <v>14926</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="2">
-        <v>149260</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1750</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1581,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1797,232 +1589,206 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
+      </c>
+      <c r="E1" s="1">
+        <v>90000</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
+      </c>
+      <c r="H1" s="1">
+        <v>260100</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2">
-        <v>90000</v>
+        <v>22.7</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>260.88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2">
-        <v>260100</v>
+        <v>175480.79</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2">
-        <v>22.7</v>
+        <v>1060.21</v>
       </c>
       <c r="F3" s="2">
-        <v>260.88</v>
+        <v>11.54</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2">
-        <v>175480.79</v>
+        <v>362507.48</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2">
-        <v>1060.21</v>
+        <v>560.06</v>
       </c>
       <c r="F4" s="2">
-        <v>11.54</v>
+        <v>17.95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2">
-        <v>362507.48</v>
+        <v>297955.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2">
-        <v>560.06</v>
+        <v>1259.44</v>
       </c>
       <c r="F5" s="2">
-        <v>17.95</v>
+        <v>11.25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="H5" s="2">
-        <v>297955.4</v>
+        <v>419721.39</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2">
-        <v>1259.44</v>
+        <v>1.74</v>
       </c>
       <c r="F6" s="2">
-        <v>11.25</v>
+        <v>112.77</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="H6" s="2">
-        <v>419721.39</v>
+        <v>5822.64</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2">
-        <v>1.74</v>
+        <v>25.73</v>
       </c>
       <c r="F7" s="2">
-        <v>112.77</v>
+        <v>93.46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="H7" s="2">
-        <v>5822.64</v>
+        <v>71243.49</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2">
-        <v>25.73</v>
+        <v>77.18</v>
       </c>
       <c r="F8" s="2">
-        <v>93.46</v>
+        <v>12.06</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="H8" s="2">
-        <v>71243.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>91</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="2">
-        <v>77.18</v>
-      </c>
-      <c r="F9" s="2">
-        <v>12.06</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="2">
         <v>27574.95</v>
       </c>
     </row>
@@ -2033,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2041,424 +1807,407 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>133</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
+++ b/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -70,21 +70,21 @@
     <t>total</t>
   </si>
   <si>
+    <t>高雄市鳳山區七老爺段一甲小段14030007地號</t>
+  </si>
+  <si>
     <t>高雄市鳳山區七老爺段一甲小段14030013地號</t>
   </si>
   <si>
-    <t>高雄市鳳山區七老爺段一甲小段14030007地號</t>
-  </si>
-  <si>
     <t>高雄市鳳山區五甲段24360000地號</t>
   </si>
   <si>
+    <t>10分之1</t>
+  </si>
+  <si>
     <t>10000分之276</t>
   </si>
   <si>
-    <t>10分之1</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>中國鋼鐵股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>十年期南非幣計價匯率連結组合</t>
@@ -735,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -793,13 +799,13 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>434</v>
+        <v>211</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -835,39 +841,39 @@
         <v>33</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0276</v>
+        <v>0.1</v>
       </c>
       <c r="Q2" s="2">
-        <v>11.9784</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>211</v>
+        <v>434</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>30</v>
@@ -888,24 +894,24 @@
         <v>33</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
-        <v>0.1</v>
+        <v>0.0276</v>
       </c>
       <c r="Q3" s="2">
-        <v>21.1</v>
+        <v>11.9784</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>434</v>
+        <v>211</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -941,39 +947,39 @@
         <v>33</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0276</v>
+        <v>0.1</v>
       </c>
       <c r="Q4" s="2">
-        <v>11.9784</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" s="2">
-        <v>74</v>
+        <v>434</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2">
-        <v>12500000</v>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>30</v>
@@ -994,12 +1000,65 @@
         <v>33</v>
       </c>
       <c r="O5" s="2">
+        <v>16</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0276</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>11.9784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
         <v>17</v>
       </c>
-      <c r="P5" s="2">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2">
+        <v>12500000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+      <c r="P6" s="2">
         <v>1</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q6" s="2">
         <v>74</v>
       </c>
     </row>
@@ -1010,41 +1069,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="1">
-        <v>72.8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>72.8</v>
@@ -1053,42 +1139,149 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2">
-        <v>36.43</v>
+        <v>72.8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2">
+        <v>36.43</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2">
+        <v>24</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>36.43</v>
       </c>
     </row>
   </sheetData>
@@ -1098,13 +1291,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1121,6 +1314,29 @@
         <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1998</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1131,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1159,10 +1375,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>42</v>
@@ -1174,18 +1390,18 @@
         <v>23</v>
       </c>
       <c r="F2" s="2">
-        <v>3773.42</v>
+        <v>3795.3</v>
       </c>
       <c r="G2" s="2">
-        <v>111780.02</v>
+        <v>112428.17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>42</v>
@@ -1197,42 +1413,44 @@
         <v>23</v>
       </c>
       <c r="F3" s="2">
-        <v>986.1</v>
+        <v>3773.42</v>
       </c>
       <c r="G3" s="2">
-        <v>29211.24</v>
+        <v>111780.02</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>986.1</v>
+      </c>
       <c r="G4" s="2">
-        <v>2700000</v>
+        <v>29211.24</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>59</v>
@@ -1242,18 +1460,18 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>436909</v>
+        <v>2700000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>59</v>
@@ -1263,18 +1481,18 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>2000000</v>
+        <v>436909</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>59</v>
@@ -1284,15 +1502,15 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>4589</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>42</v>
@@ -1305,15 +1523,15 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>24644</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>42</v>
@@ -1326,15 +1544,15 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>163</v>
+        <v>24644</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>42</v>
@@ -1347,15 +1565,15 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>42</v>
@@ -1367,16 +1585,16 @@
         <v>23</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>60</v>
+      <c r="G11" s="2">
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>42</v>
@@ -1388,16 +1606,16 @@
         <v>23</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>47928</v>
+      <c r="G12" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>42</v>
@@ -1406,19 +1624,19 @@
         <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>22</v>
+        <v>47928</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>42</v>
@@ -1431,15 +1649,15 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>379578</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>42</v>
@@ -1452,15 +1670,15 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>13606</v>
+        <v>379578</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>42</v>
@@ -1473,50 +1691,71 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>1991520</v>
+        <v>13606</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1386.77</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>41080.28</v>
+        <v>1991520</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1386.77</v>
+      </c>
+      <c r="G18" s="2">
+        <v>41080.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
         <v>102624</v>
       </c>
     </row>
@@ -1527,13 +1766,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1572,6 +1811,50 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2">
+        <v>14926</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="2">
+        <v>149260</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1750</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1581,7 +1864,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1589,7 +1872,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
@@ -1604,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1">
         <v>260100</v>
@@ -1612,7 +1895,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>66</v>
@@ -1624,24 +1907,24 @@
         <v>41</v>
       </c>
       <c r="E2" s="2">
-        <v>22.7</v>
+        <v>90000</v>
       </c>
       <c r="F2" s="2">
-        <v>260.88</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2">
-        <v>175480.79</v>
+        <v>260100</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1650,24 +1933,24 @@
         <v>41</v>
       </c>
       <c r="E3" s="2">
-        <v>1060.21</v>
+        <v>22.7</v>
       </c>
       <c r="F3" s="2">
-        <v>11.54</v>
+        <v>260.88</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="2">
-        <v>362507.48</v>
+        <v>175480.79</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -1676,24 +1959,24 @@
         <v>41</v>
       </c>
       <c r="E4" s="2">
-        <v>560.06</v>
+        <v>1060.21</v>
       </c>
       <c r="F4" s="2">
-        <v>17.95</v>
+        <v>11.54</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H4" s="2">
-        <v>297955.4</v>
+        <v>362507.48</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -1702,24 +1985,24 @@
         <v>41</v>
       </c>
       <c r="E5" s="2">
-        <v>1259.44</v>
+        <v>560.06</v>
       </c>
       <c r="F5" s="2">
-        <v>11.25</v>
+        <v>17.95</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H5" s="2">
-        <v>419721.39</v>
+        <v>297955.4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -1728,24 +2011,24 @@
         <v>41</v>
       </c>
       <c r="E6" s="2">
-        <v>1.74</v>
+        <v>1259.44</v>
       </c>
       <c r="F6" s="2">
-        <v>112.77</v>
+        <v>11.25</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H6" s="2">
-        <v>5822.64</v>
+        <v>419721.39</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -1754,24 +2037,24 @@
         <v>41</v>
       </c>
       <c r="E7" s="2">
-        <v>25.73</v>
+        <v>1.74</v>
       </c>
       <c r="F7" s="2">
-        <v>93.46</v>
+        <v>112.77</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="2">
-        <v>71243.49</v>
+        <v>5822.64</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -1780,15 +2063,41 @@
         <v>41</v>
       </c>
       <c r="E8" s="2">
-        <v>77.18</v>
+        <v>25.73</v>
       </c>
       <c r="F8" s="2">
-        <v>12.06</v>
+        <v>93.46</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="2">
+        <v>71243.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>91</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2">
+        <v>77.18</v>
+      </c>
+      <c r="F9" s="2">
+        <v>12.06</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2">
         <v>27574.95</v>
       </c>
     </row>
@@ -1799,7 +2108,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1807,92 +2116,92 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>83</v>
@@ -1901,120 +2210,120 @@
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
@@ -2025,189 +2334,206 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>133</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
+++ b/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="122">
   <si>
     <t>name</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>12500000(超過五年）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>曰產</t>
@@ -1291,38 +1294,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1">
-        <v>1998</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1331,13 +1355,34 @@
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1750</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1355,13 +1400,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1378,13 +1423,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1401,13 +1446,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1424,13 +1469,13 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1447,13 +1492,13 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1468,13 +1513,13 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -1489,13 +1534,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -1510,13 +1555,13 @@
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -1531,13 +1576,13 @@
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
@@ -1552,13 +1597,13 @@
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -1573,13 +1618,13 @@
         <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
@@ -1594,20 +1639,20 @@
         <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1615,13 +1660,13 @@
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1636,13 +1681,13 @@
         <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -1657,13 +1702,13 @@
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -1678,13 +1723,13 @@
         <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -1699,13 +1744,13 @@
         <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
@@ -1720,13 +1765,13 @@
         <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>23</v>
@@ -1743,13 +1788,13 @@
         <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -1780,13 +1825,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1818,7 +1863,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -1830,13 +1875,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
         <v>149260</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
@@ -1872,13 +1917,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1">
         <v>90000</v>
@@ -1887,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1">
         <v>260100</v>
@@ -1898,13 +1943,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2">
         <v>90000</v>
@@ -1913,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2">
         <v>260100</v>
@@ -1924,13 +1969,13 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2">
         <v>22.7</v>
@@ -1939,7 +1984,7 @@
         <v>260.88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2">
         <v>175480.79</v>
@@ -1950,13 +1995,13 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2">
         <v>1060.21</v>
@@ -1965,7 +2010,7 @@
         <v>11.54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2">
         <v>362507.48</v>
@@ -1976,13 +2021,13 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2">
         <v>560.06</v>
@@ -1991,7 +2036,7 @@
         <v>17.95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2">
         <v>297955.4</v>
@@ -2002,13 +2047,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2">
         <v>1259.44</v>
@@ -2017,7 +2062,7 @@
         <v>11.25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2">
         <v>419721.39</v>
@@ -2028,13 +2073,13 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2">
         <v>1.74</v>
@@ -2043,7 +2088,7 @@
         <v>112.77</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2">
         <v>5822.64</v>
@@ -2054,13 +2099,13 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2">
         <v>25.73</v>
@@ -2069,7 +2114,7 @@
         <v>93.46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="2">
         <v>71243.49</v>
@@ -2080,13 +2125,13 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2">
         <v>77.18</v>
@@ -2095,7 +2140,7 @@
         <v>12.06</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" s="2">
         <v>27574.95</v>
@@ -2116,16 +2161,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2133,16 +2178,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2150,16 +2195,16 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2167,16 +2212,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2184,16 +2229,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2201,16 +2246,16 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2218,16 +2263,16 @@
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2235,16 +2280,16 @@
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2252,16 +2297,16 @@
         <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2269,16 +2314,16 @@
         <v>117</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2286,16 +2331,16 @@
         <v>118</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2303,16 +2348,16 @@
         <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2320,16 +2365,16 @@
         <v>120</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2337,16 +2382,16 @@
         <v>121</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2354,16 +2399,16 @@
         <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2371,16 +2416,16 @@
         <v>123</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2388,16 +2433,16 @@
         <v>124</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2405,16 +2450,16 @@
         <v>125</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2422,16 +2467,16 @@
         <v>126</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2439,16 +2484,16 @@
         <v>127</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2456,16 +2501,16 @@
         <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2473,16 +2518,16 @@
         <v>129</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2490,16 +2535,16 @@
         <v>130</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2507,16 +2552,16 @@
         <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2524,16 +2569,16 @@
         <v>133</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
+++ b/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -139,6 +139,9 @@
     <t>12500000(超過五年）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -146,6 +149,9 @@
   </si>
   <si>
     <t>92年10月15日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>大眾商業銀行高雄分行</t>
@@ -1154,7 +1160,7 @@
         <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>31</v>
@@ -1207,7 +1213,7 @@
         <v>37</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>31</v>
@@ -1260,7 +1266,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>31</v>
@@ -1305,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1346,7 +1352,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1355,7 +1361,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>27</v>
@@ -1364,7 +1370,7 @@
         <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
@@ -1400,13 +1406,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1423,13 +1429,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1446,13 +1452,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1469,13 +1475,13 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1492,13 +1498,13 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1513,13 +1519,13 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -1534,13 +1540,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -1555,13 +1561,13 @@
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -1576,13 +1582,13 @@
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
@@ -1597,13 +1603,13 @@
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -1618,13 +1624,13 @@
         <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
@@ -1639,20 +1645,20 @@
         <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1660,13 +1666,13 @@
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1681,13 +1687,13 @@
         <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -1702,13 +1708,13 @@
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -1723,13 +1729,13 @@
         <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -1744,13 +1750,13 @@
         <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
@@ -1765,13 +1771,13 @@
         <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>23</v>
@@ -1788,13 +1794,13 @@
         <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -1825,13 +1831,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1863,7 +1869,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -1875,13 +1881,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2">
         <v>149260</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
@@ -1917,13 +1923,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1">
         <v>90000</v>
@@ -1932,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1">
         <v>260100</v>
@@ -1943,13 +1949,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2">
         <v>90000</v>
@@ -1958,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2">
         <v>260100</v>
@@ -1969,13 +1975,13 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2">
         <v>22.7</v>
@@ -1984,7 +1990,7 @@
         <v>260.88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2">
         <v>175480.79</v>
@@ -1995,13 +2001,13 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2">
         <v>1060.21</v>
@@ -2010,7 +2016,7 @@
         <v>11.54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2">
         <v>362507.48</v>
@@ -2021,13 +2027,13 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2">
         <v>560.06</v>
@@ -2036,7 +2042,7 @@
         <v>17.95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2">
         <v>297955.4</v>
@@ -2047,13 +2053,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2">
         <v>1259.44</v>
@@ -2062,7 +2068,7 @@
         <v>11.25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2">
         <v>419721.39</v>
@@ -2073,13 +2079,13 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2">
         <v>1.74</v>
@@ -2088,7 +2094,7 @@
         <v>112.77</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2">
         <v>5822.64</v>
@@ -2099,13 +2105,13 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2">
         <v>25.73</v>
@@ -2114,7 +2120,7 @@
         <v>93.46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2">
         <v>71243.49</v>
@@ -2125,13 +2131,13 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2">
         <v>77.18</v>
@@ -2140,7 +2146,7 @@
         <v>12.06</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2">
         <v>27574.95</v>
@@ -2161,16 +2167,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2178,16 +2184,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2195,16 +2201,16 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2212,16 +2218,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2229,16 +2235,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2246,16 +2252,16 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2263,16 +2269,16 @@
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2280,16 +2286,16 @@
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2297,16 +2303,16 @@
         <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2314,16 +2320,16 @@
         <v>117</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2331,16 +2337,16 @@
         <v>118</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2348,16 +2354,16 @@
         <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2365,16 +2371,16 @@
         <v>120</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2382,16 +2388,16 @@
         <v>121</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2399,16 +2405,16 @@
         <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2416,16 +2422,16 @@
         <v>123</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2433,16 +2439,16 @@
         <v>124</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2450,16 +2456,16 @@
         <v>125</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2467,16 +2473,16 @@
         <v>126</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2484,16 +2490,16 @@
         <v>127</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2501,16 +2507,16 @@
         <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2518,16 +2524,16 @@
         <v>129</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2535,16 +2541,16 @@
         <v>130</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2552,16 +2558,16 @@
         <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2569,16 +2575,16 @@
         <v>133</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
+++ b/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="126">
   <si>
     <t>name</t>
   </si>
@@ -154,73 +154,79 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>大眾商業銀行高雄分行</t>
   </si>
   <si>
+    <t>中國信託商業銀行五甲分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行鳳山分行</t>
+  </si>
+  <si>
+    <t>鳳山一甲郵局(第13支局）</t>
+  </si>
+  <si>
+    <t>臺灣銀行五甲分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行五甲分行</t>
+  </si>
+  <si>
+    <t>元大商業銀行鳳山分行</t>
+  </si>
+  <si>
+    <t>高雄縣鳳山市農會五甲分部</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行鳳山分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行五甲分行</t>
+  </si>
+  <si>
+    <t>鳳山一甲郵局（第13支局）</t>
+  </si>
+  <si>
+    <t>台灣銀行五甲分行</t>
+  </si>
+  <si>
+    <t>台灣銀行山分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>中國信託商業銀行五甲分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行鳳山分行</t>
-  </si>
-  <si>
-    <t>鳳山一甲郵局(第13支局）</t>
-  </si>
-  <si>
-    <t>臺灣銀行五甲分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行五甲分行</t>
-  </si>
-  <si>
-    <t>元大商業銀行鳳山分行</t>
-  </si>
-  <si>
-    <t>高雄縣鳳山市農會五甲分部</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行鳳山分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行五甲分行</t>
-  </si>
-  <si>
-    <t>鳳山一甲郵局（第13支局）</t>
-  </si>
-  <si>
-    <t>台灣銀行五甲分行</t>
-  </si>
-  <si>
-    <t>台灣銀行山分行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>■24037</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>中國鋼鐵股份有限公司</t>
@@ -1398,13 +1404,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1415,399 +1421,769 @@
         <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1">
-        <v>3795.3</v>
-      </c>
-      <c r="G1" s="1">
-        <v>112428.17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="2">
-        <v>3795.3</v>
-      </c>
-      <c r="G2" s="2">
         <v>112428.17</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="2">
-        <v>3773.42</v>
-      </c>
-      <c r="G3" s="2">
         <v>111780.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="2">
-        <v>986.1</v>
-      </c>
-      <c r="G4" s="2">
         <v>29211.24</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>2700000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>436909</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>4589</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>24644</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>24037</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>66</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>47928</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="F14" s="2">
+        <v>22</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2">
+        <v>379578</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="2">
         <v>62</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>379578</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>13606</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>1991520</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="2">
-        <v>1386.77</v>
-      </c>
-      <c r="G18" s="2">
         <v>41080.28</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>102624</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1750</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="2">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1831,13 +2207,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1869,7 +2245,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -1881,13 +2257,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2">
         <v>149260</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
@@ -1923,13 +2299,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1">
         <v>90000</v>
@@ -1938,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1">
         <v>260100</v>
@@ -1949,13 +2325,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2">
         <v>90000</v>
@@ -1964,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2">
         <v>260100</v>
@@ -1975,13 +2351,13 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2">
         <v>22.7</v>
@@ -1990,7 +2366,7 @@
         <v>260.88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2">
         <v>175480.79</v>
@@ -2001,13 +2377,13 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2">
         <v>1060.21</v>
@@ -2016,7 +2392,7 @@
         <v>11.54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H4" s="2">
         <v>362507.48</v>
@@ -2027,13 +2403,13 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2">
         <v>560.06</v>
@@ -2042,7 +2418,7 @@
         <v>17.95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H5" s="2">
         <v>297955.4</v>
@@ -2053,13 +2429,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2">
         <v>1259.44</v>
@@ -2068,7 +2444,7 @@
         <v>11.25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H6" s="2">
         <v>419721.39</v>
@@ -2079,13 +2455,13 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2">
         <v>1.74</v>
@@ -2094,7 +2470,7 @@
         <v>112.77</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2">
         <v>5822.64</v>
@@ -2105,13 +2481,13 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2">
         <v>25.73</v>
@@ -2120,7 +2496,7 @@
         <v>93.46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H8" s="2">
         <v>71243.49</v>
@@ -2131,13 +2507,13 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2">
         <v>77.18</v>
@@ -2146,7 +2522,7 @@
         <v>12.06</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H9" s="2">
         <v>27574.95</v>
@@ -2167,16 +2543,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2184,16 +2560,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2201,16 +2577,16 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2218,16 +2594,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2235,16 +2611,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2252,16 +2628,16 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2269,16 +2645,16 @@
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2286,16 +2662,16 @@
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2303,16 +2679,16 @@
         <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2320,16 +2696,16 @@
         <v>117</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2337,16 +2713,16 @@
         <v>118</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2354,16 +2730,16 @@
         <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2371,16 +2747,16 @@
         <v>120</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2388,16 +2764,16 @@
         <v>121</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2405,16 +2781,16 @@
         <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2422,16 +2798,16 @@
         <v>123</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2439,16 +2815,16 @@
         <v>124</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2456,16 +2832,16 @@
         <v>125</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2473,16 +2849,16 @@
         <v>126</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2490,16 +2866,16 @@
         <v>127</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2507,16 +2883,16 @@
         <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2524,16 +2900,16 @@
         <v>129</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2541,16 +2917,16 @@
         <v>130</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2558,16 +2934,16 @@
         <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2575,16 +2951,16 @@
         <v>133</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
+++ b/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="128">
   <si>
     <t>name</t>
   </si>
@@ -235,31 +235,37 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>十年期南非幣計價匯率連結组合</t>
   </si>
   <si>
+    <t>ING環高收基金</t>
+  </si>
+  <si>
+    <t>先機日本股票基金B</t>
+  </si>
+  <si>
+    <t>先機歐洲股票基金B</t>
+  </si>
+  <si>
+    <t>坦全新興國家固定收B</t>
+  </si>
+  <si>
+    <t>摩根東協基金</t>
+  </si>
+  <si>
+    <t>摩根菲律賓基金</t>
+  </si>
+  <si>
+    <t>摩根證券俄羅斯基金</t>
+  </si>
+  <si>
     <t>南非幣</t>
   </si>
   <si>
-    <t>ING環高收基金</t>
-  </si>
-  <si>
-    <t>先機日本股票基金B</t>
-  </si>
-  <si>
-    <t>先機歐洲股票基金B</t>
-  </si>
-  <si>
-    <t>坦全新興國家固定收B</t>
-  </si>
-  <si>
-    <t>摩根東協基金</t>
-  </si>
-  <si>
-    <t>摩根菲律賓基金</t>
-  </si>
-  <si>
-    <t>摩根證券俄羅斯基金</t>
+    <t>fund</t>
   </si>
   <si>
     <t>法國巴黎人壽</t>
@@ -2291,41 +2297,62 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1">
-        <v>90000</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1</v>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="1">
-        <v>260100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -2340,13 +2367,34 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H2" s="2">
         <v>260100</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>85</v>
       </c>
@@ -2371,8 +2419,29 @@
       <c r="H3" s="2">
         <v>175480.79</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>86</v>
       </c>
@@ -2397,8 +2466,29 @@
       <c r="H4" s="2">
         <v>362507.48</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>87</v>
       </c>
@@ -2423,8 +2513,29 @@
       <c r="H5" s="2">
         <v>297955.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>88</v>
       </c>
@@ -2449,8 +2560,29 @@
       <c r="H6" s="2">
         <v>419721.39</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>89</v>
       </c>
@@ -2475,8 +2607,29 @@
       <c r="H7" s="2">
         <v>5822.64</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>90</v>
       </c>
@@ -2501,8 +2654,29 @@
       <c r="H8" s="2">
         <v>71243.49</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>91</v>
       </c>
@@ -2526,6 +2700,27 @@
       </c>
       <c r="H9" s="2">
         <v>27574.95</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="2">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2543,16 +2738,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2560,16 +2755,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2577,16 +2772,16 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2594,16 +2789,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2611,16 +2806,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2628,16 +2823,16 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2645,16 +2840,16 @@
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2662,16 +2857,16 @@
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2679,16 +2874,16 @@
         <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2696,16 +2891,16 @@
         <v>117</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2713,16 +2908,16 @@
         <v>118</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2730,16 +2925,16 @@
         <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2747,16 +2942,16 @@
         <v>120</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2764,16 +2959,16 @@
         <v>121</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2781,16 +2976,16 @@
         <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2798,16 +2993,16 @@
         <v>123</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2815,16 +3010,16 @@
         <v>124</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2832,16 +3027,16 @@
         <v>125</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2849,16 +3044,16 @@
         <v>126</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2866,16 +3061,16 @@
         <v>127</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2883,16 +3078,16 @@
         <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2900,16 +3095,16 @@
         <v>129</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2917,16 +3112,16 @@
         <v>130</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2934,16 +3129,16 @@
         <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2951,16 +3146,16 @@
         <v>133</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
+++ b/legislator/property/output/normal/許智傑_2013-12-11_財產申報表_tmpd3cb1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -268,27 +268,27 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>法國巴黎人壽</t>
   </si>
   <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
+    <t>康健人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
     <t>致富100富甲天下外幣變額保險</t>
   </si>
   <si>
-    <t>保費整筆：美金15000元（躉繳）</t>
-  </si>
-  <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
-    <t>康健人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
     <t>增鑫動養老保險</t>
   </si>
   <si>
@@ -343,67 +343,7 @@
     <t>新20年期缴費增值分紅終身壽險</t>
   </si>
   <si>
-    <t>新台幣：50萬元（年繳）</t>
-  </si>
-  <si>
-    <t>年繳：新台幣18600元（年繳）</t>
-  </si>
-  <si>
-    <t>年繳：美金1704元</t>
-  </si>
-  <si>
-    <t>年繳：新台幣18320元</t>
-  </si>
-  <si>
-    <t>年繳：美金1662元</t>
-  </si>
-  <si>
-    <t>年繳：美金1900元</t>
-  </si>
-  <si>
-    <t>年繳：美金1920元</t>
-  </si>
-  <si>
-    <t>月繳：新台幣5000元</t>
-  </si>
-  <si>
-    <t>年繳：美金2080元</t>
-  </si>
-  <si>
-    <t>躉繳：美金三萬元</t>
-  </si>
-  <si>
-    <t>年缴：新台幣150000元</t>
-  </si>
-  <si>
-    <t>年繳：美金3091元</t>
-  </si>
-  <si>
-    <t>年繳：新台幣25100元</t>
-  </si>
-  <si>
-    <t>年缴：美金2712元</t>
-  </si>
-  <si>
-    <t>年繳：新台幣24900元</t>
-  </si>
-  <si>
-    <t>年繳：新台幣28200元</t>
-  </si>
-  <si>
-    <t>年繳：新台幣22100元</t>
-  </si>
-  <si>
-    <t>年繳：新台幣2680元</t>
-  </si>
-  <si>
-    <t>年繳新台幣123800元</t>
-  </si>
-  <si>
-    <t>年繳：新台幣6150元</t>
-  </si>
-  <si>
-    <t>年繳：新台幣19775元</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2730,49 +2670,85 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>89</v>
@@ -2783,13 +2759,31 @@
       <c r="E3" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>90</v>
@@ -2798,15 +2792,33 @@
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>91</v>
@@ -2815,15 +2827,33 @@
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>90</v>
@@ -2832,15 +2862,33 @@
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>92</v>
@@ -2849,15 +2897,33 @@
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>93</v>
@@ -2866,15 +2932,33 @@
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>93</v>
@@ -2883,15 +2967,33 @@
         <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>117</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>94</v>
@@ -2900,15 +3002,33 @@
         <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>118</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>95</v>
@@ -2917,15 +3037,33 @@
         <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>96</v>
@@ -2934,15 +3072,33 @@
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>120</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>96</v>
@@ -2951,15 +3107,33 @@
         <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>121</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>97</v>
@@ -2968,15 +3142,33 @@
         <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>98</v>
@@ -2985,15 +3177,33 @@
         <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>123</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>99</v>
@@ -3002,15 +3212,33 @@
         <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>124</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>100</v>
@@ -3019,15 +3247,33 @@
         <v>23</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>125</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>101</v>
@@ -3036,15 +3282,33 @@
         <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>126</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>102</v>
@@ -3053,15 +3317,33 @@
         <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>127</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>103</v>
@@ -3070,15 +3352,33 @@
         <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>104</v>
@@ -3087,15 +3387,33 @@
         <v>23</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>129</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>102</v>
@@ -3104,15 +3422,33 @@
         <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>130</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>102</v>
@@ -3121,15 +3457,33 @@
         <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>105</v>
@@ -3138,15 +3492,33 @@
         <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>133</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>106</v>
@@ -3155,7 +3527,25 @@
         <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1750</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="2">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
